--- a/Result.xlsx
+++ b/Result.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="QDSOA" sheetId="1" r:id="rId1"/>
     <sheet name="PCQDSOA" sheetId="2" r:id="rId2"/>
-    <sheet name="QDvsPC" sheetId="3" r:id="rId3"/>
+    <sheet name="QDvsPC_ER" sheetId="3" r:id="rId3"/>
+    <sheet name="QDvsPC_QFactor" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Injection[A]</t>
   </si>
@@ -34,11 +35,43 @@
   <si>
     <t>Injection[mA]</t>
   </si>
+  <si>
+    <t>Injection[mA]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QDSOA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC-QDSOA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Injection[mA]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q-Factor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QDSOA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC-QDSOA</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -75,9 +108,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2298,6 +2337,1722 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>QDvsPC_ER!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QDSOA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>QDvsPC_ER!$F$2:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-7.0015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.0670999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>-2.6269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>0.39701999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5726</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>2.5038999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>3.8355999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>4.6952999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>5.7362000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8590999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>6.3010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>6.4960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>6.8215000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>7.0761000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>7.2530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>7.5286999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.5622999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>7.5627000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>7.6947000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>7.8352000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.5841999999999992</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.1597000000000008</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.5288000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.8552</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.8986000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.0593</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.0609</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.105</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.1518</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.1653</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.170299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>QDvsPC_ER!$G$2:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E45-4CC7-ADB3-4E6C5E1E4366}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="493483272"/>
+        <c:axId val="493479992"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>QDvsPC_ER!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PC-QDSOA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>QDvsPC_ER!$F$2:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-7.0015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.0670999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>-2.6269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>0.39701999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5726</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>2.5038999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>3.8355999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>4.6952999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>5.7362000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8590999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>6.3010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>6.4960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>6.8215000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>7.0761000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>7.2530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>7.5286999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.5622999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>7.5627000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>7.6947000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>7.8352000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.5841999999999992</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.1597000000000008</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.5288000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.8552</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.8986000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.0593</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.0609</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.105</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.1518</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.1653</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.170299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>QDvsPC_ER!$H$2:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3E45-4CC7-ADB3-4E6C5E1E4366}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="496411072"/>
+        <c:axId val="496414680"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="493483272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>ER[dB]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493479992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="2.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="493479992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3500"/>
+          <c:min val="500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Current Injection (QDSOA)[mA] </a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493483272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1000"/>
+        <c:minorUnit val="500"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="496414680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Current Injection (PC-QDSOA)[mA]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496411072"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
+        <c:minorUnit val="2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="496411072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.000_);[Red]\(0.000\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="496414680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>QDvsPC_QFactor!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QDSOA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>QDvsPC_QFactor!$F$2:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1.6268</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2248700000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.26172</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8580999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1894</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7250999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9384999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2453000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5075000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7201000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0404999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.1367000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.6288</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.6349</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.9901</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.2934000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.4097</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.4093999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.7434999999999992</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.9259000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.196999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.971299999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.187799999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14.1891</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.1065</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.748200000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.5669</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.188199999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>QDvsPC_QFactor!$G$2:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B8A-49F8-8077-801C590AA843}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="581349880"/>
+        <c:axId val="581350208"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>QDvsPC_QFactor!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PC-QDSOA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>QDvsPC_QFactor!$F$2:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1.6268</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2248700000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.26172</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8580999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1894</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7250999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9384999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2453000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5075000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7201000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0404999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.1367000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.6288</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.6349</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.9901</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.2934000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.4097</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.4093999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.7434999999999992</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.9259000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.196999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.971299999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.187799999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14.1891</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.1065</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.748200000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.5669</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.188199999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>QDvsPC_QFactor!$H$2:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8B8A-49F8-8077-801C590AA843}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="582908368"/>
+        <c:axId val="582906400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="581349880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Q-Factor</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="581350208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="2.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="581350208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3500"/>
+          <c:min val="500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Current Injection (QDSOA)[mA]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="581349880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1000"/>
+        <c:minorUnit val="500"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="582906400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="18"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Current Injection (PC-QDSOA)[mA]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="582908368"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
+        <c:minorUnit val="2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="582908368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="582906400"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2458,6 +4213,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4007,6 +5842,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4680,6 +7547,88 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>404811</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC0CC8E1-CDDC-4947-B528-EB93776E2214}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>176211</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3BD8A31-F21E-4789-B45E-CF48E13D8B29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4945,8 +7894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" activeCellId="1" sqref="A1:A1048576 C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5328,8 +8277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" activeCellId="1" sqref="A1:A1048576 C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5709,13 +8658,1157 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="5" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B2" s="3">
+        <v>-2.6269999999999998</v>
+      </c>
+      <c r="C2" s="1">
+        <f>A2*1000</f>
+        <v>600</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-7.0015000000000001</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-7.0015000000000001</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.39701999999999998</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C17" si="0">A3*1000</f>
+        <v>800</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-4.0670999999999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-4.0670999999999999</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2.5038999999999998</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.5726</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-2.6269999999999998</v>
+      </c>
+      <c r="G4" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3.8355999999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5.8590999999999998</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.39701999999999998</v>
+      </c>
+      <c r="G5" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4.6952999999999996</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7.5622999999999996</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.5726</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5.7362000000000002</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8.5841999999999992</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2.5038999999999998</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6.3010000000000002</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9.1597000000000008</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3.8355999999999999</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6.4960000000000004</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9.5288000000000004</v>
+      </c>
+      <c r="E9" s="2">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4.6952999999999996</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6.8215000000000003</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.8552</v>
+      </c>
+      <c r="E10" s="2">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5.7362000000000002</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="B11" s="3">
+        <v>7.0761000000000003</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9.8986000000000001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5.8590999999999998</v>
+      </c>
+      <c r="H11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="B12" s="3">
+        <v>7.2530000000000001</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>2600</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10.0593</v>
+      </c>
+      <c r="E12" s="2">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6.3010000000000002</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="B13" s="3">
+        <v>7.5627000000000004</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+      <c r="D13" s="2">
+        <v>10.0609</v>
+      </c>
+      <c r="E13" s="2">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6.4960000000000004</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3">
+        <v>7.5286999999999997</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="D14" s="2">
+        <v>10.105</v>
+      </c>
+      <c r="E14" s="2">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6.8215000000000003</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>7.6947000000000001</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="D15" s="2">
+        <v>10.1518</v>
+      </c>
+      <c r="E15" s="2">
+        <v>14</v>
+      </c>
+      <c r="F15" s="3">
+        <v>7.0761000000000003</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="B16" s="3">
+        <v>7.8352000000000004</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>3400</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10.1653</v>
+      </c>
+      <c r="E16" s="2">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3">
+        <v>7.2530000000000001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="B17" s="3">
+        <v>8.0916999999999994</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="D17" s="2">
+        <v>10.170299999999999</v>
+      </c>
+      <c r="E17" s="2">
+        <v>16</v>
+      </c>
+      <c r="F17" s="3">
+        <v>7.5286999999999997</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="F18" s="2">
+        <v>7.5622999999999996</v>
+      </c>
+      <c r="H18" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="F19" s="3">
+        <v>7.5627000000000004</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="F20" s="3">
+        <v>7.6947000000000001</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="F21" s="3">
+        <v>7.8352000000000004</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="F22" s="2">
+        <v>8.5841999999999992</v>
+      </c>
+      <c r="H22" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="F23" s="2">
+        <v>9.1597000000000008</v>
+      </c>
+      <c r="H23" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="F24" s="2">
+        <v>9.5288000000000004</v>
+      </c>
+      <c r="H24" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="F25" s="2">
+        <v>9.8552</v>
+      </c>
+      <c r="H25" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="F26" s="2">
+        <v>9.8986000000000001</v>
+      </c>
+      <c r="H26" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="F27" s="2">
+        <v>10.0593</v>
+      </c>
+      <c r="H27" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="F28" s="2">
+        <v>10.0609</v>
+      </c>
+      <c r="H28" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="F29" s="2">
+        <v>10.105</v>
+      </c>
+      <c r="H29" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="F30" s="2">
+        <v>10.1518</v>
+      </c>
+      <c r="H30" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="F31" s="2">
+        <v>10.1653</v>
+      </c>
+      <c r="H31" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="F32" s="2">
+        <v>10.170299999999999</v>
+      </c>
+      <c r="H32" s="2">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="F2:H32">
+    <sortCondition ref="F1"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="3" max="5" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B2">
+        <f>A3*1000</f>
+        <v>600</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.8667</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.6268</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.6268</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B3">
+        <f>A5*1000</f>
+        <v>800</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.2248700000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.8667</v>
+      </c>
+      <c r="G3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B4">
+        <f>A7*1000</f>
+        <v>1000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.26172</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.7250999999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.2248700000000001</v>
+      </c>
+      <c r="G4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B5">
+        <f>A9*1000</f>
+        <v>1200</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.8580999999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5.1367000000000003</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.26172</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B6">
+        <f>A11*1000</f>
+        <v>1400</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.1894</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6.4097</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <f>A13*1000</f>
+        <v>1600</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.6080000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7.4093999999999998</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.8580999999999999</v>
+      </c>
+      <c r="G7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B8">
+        <f>A15*1000</f>
+        <v>1800</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.9384999999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8.7434999999999992</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3.1894</v>
+      </c>
+      <c r="G8">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="B9">
+        <f>A17*1000</f>
+        <v>2000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.2453000000000003</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>9.9259000000000004</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.6080000000000001</v>
+      </c>
+      <c r="G9">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="B10">
+        <f>A19*1000</f>
+        <v>2200</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4.5075000000000003</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
+        <v>11.196999999999999</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3.7250999999999999</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="B11">
+        <f>A21*1000</f>
+        <v>2400</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4.7201000000000004</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>11.971299999999999</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3.9384999999999999</v>
+      </c>
+      <c r="G11">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B12">
+        <f>A23*1000</f>
+        <v>2600</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5.0404999999999998</v>
+      </c>
+      <c r="D12" s="1">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
+        <v>13.187799999999999</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4.2453000000000003</v>
+      </c>
+      <c r="G12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="B13">
+        <f>A25*1000</f>
+        <v>2800</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5.6288</v>
+      </c>
+      <c r="D13" s="1">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1">
+        <v>14.1891</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4.5075000000000003</v>
+      </c>
+      <c r="G13">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="B14">
+        <f>A27*1000</f>
+        <v>3000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5.6349</v>
+      </c>
+      <c r="D14" s="1">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1">
+        <v>15.1065</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4.7201000000000004</v>
+      </c>
+      <c r="G14">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="B15">
+        <f>A29*1000</f>
+        <v>3200</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5.9901</v>
+      </c>
+      <c r="D15" s="1">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1">
+        <v>15.748200000000001</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5.0404999999999998</v>
+      </c>
+      <c r="G15">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="B16">
+        <f>A31*1000</f>
+        <v>3400</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6.2934000000000001</v>
+      </c>
+      <c r="D16" s="1">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1">
+        <v>16.5669</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5.1367000000000003</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <f>A33*1000</f>
+        <v>3600</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6.9835000000000003</v>
+      </c>
+      <c r="D17" s="1">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1">
+        <v>17.188199999999998</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5.6288</v>
+      </c>
+      <c r="G17">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5.6349</v>
+      </c>
+      <c r="G18">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5.9901</v>
+      </c>
+      <c r="G19">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6.2934000000000001</v>
+      </c>
+      <c r="G20">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>6.4097</v>
+      </c>
+      <c r="H21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>7.4093999999999998</v>
+      </c>
+      <c r="H22" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="F23" s="1">
+        <v>8.7434999999999992</v>
+      </c>
+      <c r="H23" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="F24" s="1">
+        <v>9.9259000000000004</v>
+      </c>
+      <c r="H24" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="F25" s="1">
+        <v>11.196999999999999</v>
+      </c>
+      <c r="H25" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="F26" s="1">
+        <v>11.971299999999999</v>
+      </c>
+      <c r="H26" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>13.187799999999999</v>
+      </c>
+      <c r="H27" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>14.1891</v>
+      </c>
+      <c r="H28" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>15.1065</v>
+      </c>
+      <c r="H29" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="F30" s="1">
+        <v>15.748200000000001</v>
+      </c>
+      <c r="H30" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="F31" s="1">
+        <v>16.5669</v>
+      </c>
+      <c r="H31" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F32" s="1">
+        <v>17.188199999999998</v>
+      </c>
+      <c r="H32" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="F2:H33">
+    <sortCondition ref="F1"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>